--- a/temp/VX团队2017年月报-徐习海.xlsx
+++ b/temp/VX团队2017年月报-徐习海.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="107">
   <si>
     <t>开始日期</t>
   </si>
@@ -180,22 +180,31 @@
     <t>20170301</t>
   </si>
   <si>
+    <t>2017-03-06</t>
+  </si>
+  <si>
+    <t>vx-api,atom-vx问题解决</t>
+  </si>
+  <si>
+    <t>2017-03-13</t>
+  </si>
+  <si>
+    <t>vx-api问题解决,atom-vx插件问题解决</t>
+  </si>
+  <si>
+    <t>2017-03-20</t>
+  </si>
+  <si>
+    <t>angular2,vue学习</t>
+  </si>
+  <si>
+    <t>2017-03-27</t>
+  </si>
+  <si>
+    <t>20170401</t>
+  </si>
+  <si>
     <t>xx天</t>
-  </si>
-  <si>
-    <t>2017-03-06</t>
-  </si>
-  <si>
-    <t>2017-03-13</t>
-  </si>
-  <si>
-    <t>2017-03-20</t>
-  </si>
-  <si>
-    <t>2017-03-27</t>
-  </si>
-  <si>
-    <t>20170401</t>
   </si>
   <si>
     <t>2017-04-03</t>
@@ -1361,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1386,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1449,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1512,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1575,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1638,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1694,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1739,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1802,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1865,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1928,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1994,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2029,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2092,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2155,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2218,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2880,28 +2889,73 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2919,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2942,29 +2996,104 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -3005,29 +3134,104 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -3045,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3068,29 +3272,104 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -3108,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3131,9 +3410,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -3179,19 +3473,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -3209,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3272,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3335,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3398,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3479,19 +3773,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3499,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3562,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3625,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3688,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3751,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3812,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -3852,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3915,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3978,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4041,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4112,19 +4406,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -4142,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4205,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4268,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4331,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4394,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4445,19 +4739,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -4495,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4558,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4621,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4684,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4750,19 +5044,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -4785,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4848,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4911,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4974,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
